--- a/Статистика кликов.xlsx
+++ b/Статистика кликов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,10 +587,21 @@
       <c r="A13" s="5">
         <v>44820</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3">
+        <v>3969</v>
+      </c>
+      <c r="C13" s="3">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
       <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>44821</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Статистика кликов.xlsx
+++ b/Статистика кликов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -109,6 +109,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -391,19 +394,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -418,193 +421,286 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>44807</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3520</v>
+      </c>
+      <c r="C2" s="3">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>44808</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3314</v>
+      </c>
+      <c r="C3" s="3">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>44809</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="2">
         <v>2804</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C4" s="2">
         <v>41</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>44810</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1945</v>
-      </c>
-      <c r="C3" s="2">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>44811</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1580</v>
-      </c>
-      <c r="C4" s="2">
-        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1945</v>
+      </c>
+      <c r="C5" s="2">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>44811</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1580</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>44812</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="2">
         <v>6185</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C7" s="2">
         <v>43</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="2">
         <v>13</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>44813</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>4173</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C8" s="2">
         <v>44</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>44814</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>3853</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="2">
         <v>30</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>44815</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="2">
         <v>3296</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="2">
         <v>43</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>44816</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B11" s="2">
         <v>4560</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C11" s="2">
         <v>44</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D11" s="2">
         <v>8</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>44817</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B12" s="2">
         <v>1375</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C12" s="2">
         <v>13</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>44818</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B13" s="2">
         <v>2229</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C13" s="2">
         <v>57</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>44819</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B14" s="2">
         <v>3407</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C14" s="2">
         <v>32</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>44820</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B15" s="3">
         <v>3969</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C15" s="3">
         <v>31</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>44821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>44834</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>